--- a/datos_registrar_SOFIA.xlsx
+++ b/datos_registrar_SOFIA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PythonProjects\registrador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411888DF-5C57-46B5-A672-266D7B212122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61545D3-DCA3-4898-8C89-D4FE6432F6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15240" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,18 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -568,11 +579,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68.85546875" bestFit="1" customWidth="1"/>
@@ -798,6 +809,30 @@
     <hyperlink ref="W2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F1E669C4-95D9-4B50-8C16-D41B1836E4ED}">
+          <x14:formula1>
+            <xm:f>Hoja2!$C$1:$C$31</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2 M2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{92C37E3B-D918-4CEA-A0D6-1A5057AC8D47}">
+          <x14:formula1>
+            <xm:f>Hoja2!$A$1:$A$138</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2 O2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D1DC2EDE-F09A-48D4-BF0A-93C48300F8C4}">
+          <x14:formula1>
+            <xm:f>Hoja2!$E$1:$E$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>N2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -805,11 +840,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A117" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
